--- a/data/trans_dic/P04D$notiene-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,94</t>
+          <t>2,77; 5,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 21,76</t>
+          <t>15,57; 21,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,54</t>
+          <t>2,46; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,05</t>
+          <t>3,13; 6,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,94</t>
+          <t>14,26; 20,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,56</t>
+          <t>3,66; 6,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,47</t>
+          <t>3,23; 5,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,93</t>
+          <t>15,85; 19,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,55</t>
+          <t>3,38; 5,43</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,46</t>
+          <t>2,04; 4,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,25</t>
+          <t>12,61; 17,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 10,46</t>
+          <t>3,68; 10,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,52</t>
+          <t>2,15; 4,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 16,03</t>
+          <t>11,72; 16,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,38</t>
+          <t>7,13; 10,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,92</t>
+          <t>2,29; 3,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 15,85</t>
+          <t>12,68; 15,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,97</t>
+          <t>5,53; 9,81</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,77</t>
+          <t>5,48; 9,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 23,6</t>
+          <t>17,36; 23,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,71</t>
+          <t>16,96; 24,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,62</t>
+          <t>3,8; 7,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 22,36</t>
+          <t>16,64; 22,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 22,05</t>
+          <t>8,47; 21,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 7,89</t>
+          <t>5,07; 7,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,15</t>
+          <t>17,94; 22,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 21,79</t>
+          <t>11,68; 21,42</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,09</t>
+          <t>1,91; 4,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,97</t>
+          <t>8,71; 12,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 13,86</t>
+          <t>9,09; 13,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,81</t>
+          <t>4,08; 6,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,01</t>
+          <t>8,02; 11,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 36,16</t>
+          <t>9,58; 35,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,15</t>
+          <t>3,27; 5,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,84</t>
+          <t>8,91; 11,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,15; 24,2</t>
+          <t>10,16; 24,23</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,99</t>
+          <t>3,42; 4,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 17,02</t>
+          <t>14,4; 17,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,26; 11,87</t>
+          <t>8,0; 11,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,25</t>
+          <t>3,76; 5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 15,82</t>
+          <t>13,35; 15,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,14</t>
+          <t>9,82; 17,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,87</t>
+          <t>3,87; 4,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 15,96</t>
+          <t>14,18; 15,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,78; 14,79</t>
+          <t>9,82; 14,13</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene calefacción ni aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28462</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>125393</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23160</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30881</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>115038</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35812</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>59344</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>240431</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>58972</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19408; 41394</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>105063; 146474</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15568; 34777</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21760; 43266</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95955; 135577</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26492; 48077</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45152; 75035</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>213544; 268875</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45863; 73702</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30358</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>151077</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>90508</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31862</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>144257</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82772</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62220</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>295334</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>173280</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20664; 44052</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>128888; 175257</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43892; 124722</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22168; 45505</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>122204; 169400</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>68141; 99484</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46918; 81315</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>261868; 329682</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>118814; 210789</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56034</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>155593</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>143943</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42153</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>152581</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>152583</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>98187</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>308174</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>296526</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41446; 72922</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>131828; 178358</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>119308; 172083</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29476; 56993</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>130625; 176093</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>78875; 204132</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>77655; 118928</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>277090; 341021</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>191012; 350306</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27261</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>101508</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>103861</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54680</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>102918</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>172658</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>81941</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>204426</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>276519</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18145; 40758</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>81708; 120507</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>84097; 126842</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42926; 72774</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>83706; 124148</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>104645; 389518</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65405; 101686</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>176593; 232479</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>204960; 488650</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>142116</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>533571</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>361472</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>159575</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>514794</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>443825</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>301691</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1048365</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>805297</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>117068; 167283</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>488903; 580562</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>276342; 413108</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>133591; 184342</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>473334; 561205</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>363645; 641776</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>269870; 337742</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>984256; 1108322</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>703057; 1011512</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>